--- a/leanCrm/data/physicalAreas/PhysicalSpaces/data/PhysicalSpaces.xlsx
+++ b/leanCrm/data/physicalAreas/PhysicalSpaces/data/PhysicalSpaces.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\njava\simasoft\leanCrm\data\physicalAreas\PhysicalSpaces\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalSpaces" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>PhysicalSpaces</t>
+  </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>telExt</t>
+  </si>
+  <si>
     <t>Fachada</t>
   </si>
   <si>
+    <t>Ingreso Escalera 1 Piso</t>
+  </si>
+  <si>
+    <t>Escalera 1 Piso</t>
+  </si>
+  <si>
     <t>Pasillo 2 piso</t>
-  </si>
-  <si>
-    <t>Escalera 1 Piso</t>
-  </si>
-  <si>
-    <t>Ingreso Escalera 1 Piso</t>
   </si>
   <si>
     <t>placa 2 piso</t>
@@ -126,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -626,7 +635,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -710,9 +719,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -745,9 +754,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -927,185 +936,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/leanCrm/data/physicalAreas/PhysicalSpaces/data/PhysicalSpaces.xlsx
+++ b/leanCrm/data/physicalAreas/PhysicalSpaces/data/PhysicalSpaces.xlsx
@@ -938,7 +938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
